--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,64 +46,58 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>paint</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -112,105 +106,102 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -226,15 +217,15 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
   </si>
   <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -614,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,16 +742,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7688172043010753</v>
+        <v>0.8125</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.6792452830188679</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7281553398058253</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.578125</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.3811475409836065</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L9">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>755</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.3170731707317073</v>
+        <v>0.3877049180327869</v>
       </c>
       <c r="L10">
-        <v>221</v>
+        <v>473</v>
       </c>
       <c r="M10">
-        <v>221</v>
+        <v>473</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>476</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,16 +1092,16 @@
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.2946058091286307</v>
+        <v>0.3328550932568149</v>
       </c>
       <c r="L11">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="M11">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>340</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.2333333333333333</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.2168674698795181</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,37 +1221,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.1957186544342508</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>263</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5272727272727272</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.1182795698924731</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,49 +1371,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5111111111111111</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>51</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <v>0.1236559139784946</v>
+      </c>
+      <c r="L17">
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17">
-        <v>0.1131578947368421</v>
-      </c>
-      <c r="L17">
-        <v>129</v>
-      </c>
-      <c r="M17">
-        <v>130</v>
-      </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1011</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5072463768115942</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C18">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.1004016064257028</v>
+        <v>0.1113058720420684</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>224</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4939759036144578</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.06406685236768803</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>336</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4881889763779528</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,31 +1539,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>0.05523066926575698</v>
       </c>
       <c r="L20">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1463</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4727272727272727</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,25 +1589,25 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.03070761014686248</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21">
         <v>26</v>
       </c>
       <c r="N21">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O21">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1633,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.462962962962963</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4603174603174603</v>
+        <v>0.3515625</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4315789473684211</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1711,13 +1699,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3984375</v>
+        <v>0.3080568720379147</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1729,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1737,13 +1725,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3465346534653465</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1755,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1763,13 +1751,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3370786516853932</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1781,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1789,13 +1777,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3127962085308057</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1807,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1815,13 +1803,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2905982905982906</v>
+        <v>0.22</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1833,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>83</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1841,13 +1829,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2731958762886598</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1859,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>141</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1867,13 +1855,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2448979591836735</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1885,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>74</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1893,13 +1881,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2373417721518987</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1911,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>241</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1919,13 +1907,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.21513353115727</v>
+        <v>0.2032640949554896</v>
       </c>
       <c r="C33">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D33">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1937,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1945,13 +1933,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2101910828025478</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1963,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>124</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1971,13 +1959,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2071428571428572</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1989,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1997,13 +1985,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2056962025316456</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2015,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>251</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2023,25 +2011,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>140</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2049,13 +2037,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1884057971014493</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C38">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2067,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>224</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2075,13 +2063,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.17</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2093,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>166</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2101,13 +2089,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1674008810572687</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C40">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2119,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>378</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2127,13 +2115,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.146551724137931</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2145,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>297</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2153,25 +2141,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1311475409836066</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>159</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2179,13 +2167,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1261682242990654</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2197,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2205,25 +2193,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.125</v>
+        <v>0.08401976935749589</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>217</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2231,25 +2219,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1165413533834586</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>235</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2257,13 +2245,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1151832460732984</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2275,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>169</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2283,25 +2271,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09340659340659341</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2309,25 +2297,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08732394366197183</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>324</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2335,25 +2323,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08602150537634409</v>
+        <v>0.03413400758533502</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>255</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2361,129 +2349,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07920792079207921</v>
+        <v>0.03369065849923431</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.06473214285714286</v>
-      </c>
-      <c r="C51">
-        <v>29</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-      <c r="E51">
-        <v>0.03</v>
-      </c>
-      <c r="F51">
-        <v>0.97</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.05104408352668213</v>
-      </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>25</v>
-      </c>
-      <c r="E52">
-        <v>0.12</v>
-      </c>
-      <c r="F52">
-        <v>0.88</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.04281345565749235</v>
-      </c>
-      <c r="C53">
-        <v>28</v>
-      </c>
-      <c r="D53">
-        <v>29</v>
-      </c>
-      <c r="E53">
-        <v>0.03</v>
-      </c>
-      <c r="F53">
-        <v>0.97</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.03914141414141414</v>
-      </c>
-      <c r="C54">
-        <v>31</v>
-      </c>
-      <c r="D54">
-        <v>33</v>
-      </c>
-      <c r="E54">
-        <v>0.06</v>
-      </c>
-      <c r="F54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>761</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
